--- a/prizmer/static/excel/water_digital_template_for_load.xlsx
+++ b/prizmer/static/excel/water_digital_template_for_load.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Water_k1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Water_k1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t xml:space="preserve">**Для Пульсаров многоканальных отдельная ведомость, данный обрацец для прогрузки цифровых счётчиков</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира 0004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭкоНом ХВС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">89.17.59.204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ЭкоНом ГВС</t>
   </si>
 </sst>
 </file>
@@ -208,7 +220,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="4">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -231,32 +243,10 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="thin">
-        <color rgb="FFDBDBDB"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFDBDBDB"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFDBDBDB"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFDBDBDB"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="medium"/>
-      <right style="medium"/>
-      <top style="medium"/>
-      <bottom style="medium"/>
       <diagonal/>
     </border>
   </borders>
@@ -289,11 +279,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -314,15 +308,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -330,27 +324,31 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -431,7 +429,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -469,81 +467,187 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA7"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="16.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="5.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.28"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="9" t="s">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -560,27 +664,28 @@
       <c r="I2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="0" t="n">
+      <c r="J2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K2" s="0" t="s">
+      <c r="K2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="0" t="n">
+      <c r="L2" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="N2" s="0" t="s">
+      <c r="M2" s="15"/>
+      <c r="N2" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="9" t="s">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D3" s="11" t="s">
@@ -594,30 +699,31 @@
       <c r="H3" s="12" t="n">
         <v>366032</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="0" t="n">
+      <c r="J3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K3" s="0" t="s">
+      <c r="K3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="0" t="n">
+      <c r="L3" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="11" t="s">
@@ -634,27 +740,28 @@
       <c r="I4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="0" t="n">
+      <c r="J4" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="K4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="0" t="n">
+      <c r="L4" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="M4" s="15"/>
+      <c r="N4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="11" t="s">
@@ -668,115 +775,198 @@
       <c r="H5" s="12" t="n">
         <v>366035</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="0" t="n">
+      <c r="J5" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="K5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="0" t="n">
+      <c r="L5" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="N5" s="0" t="s">
+      <c r="M5" s="15"/>
+      <c r="N5" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="30.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="0" t="n">
+      <c r="E6" s="14"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="14" t="n">
         <v>65533</v>
       </c>
-      <c r="H6" s="0" t="n">
+      <c r="H6" s="14" t="n">
         <v>65533</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="0" t="n">
+      <c r="J6" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K6" s="0" t="s">
+      <c r="K6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="0" t="n">
+      <c r="L6" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="N6" s="0" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="15" t="s">
+      <c r="R6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
-      <c r="AA6" s="15"/>
+      <c r="S6" s="17"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
+      <c r="V6" s="17"/>
+      <c r="W6" s="17"/>
+      <c r="X6" s="17"/>
+      <c r="Y6" s="17"/>
+      <c r="Z6" s="17"/>
+      <c r="AA6" s="17"/>
     </row>
     <row r="7" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
       <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G7" s="0" t="n">
+      <c r="E7" s="14"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="14" t="n">
         <v>65535</v>
       </c>
-      <c r="H7" s="0" t="n">
+      <c r="H7" s="14" t="n">
         <v>65535</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="0" t="n">
+      <c r="J7" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="K7" s="0" t="s">
+      <c r="K7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="0" t="n">
+      <c r="L7" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="N7" s="0" t="s">
+      <c r="M7" s="15"/>
+      <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="15" t="s">
+      <c r="R7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="15"/>
-      <c r="T7" s="15"/>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="15"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="17"/>
+      <c r="U7" s="17"/>
+      <c r="V7" s="17"/>
+      <c r="W7" s="17"/>
+      <c r="X7" s="17"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="H8" s="14" t="n">
+        <v>12</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L8" s="14" t="n">
+        <v>8086</v>
+      </c>
+      <c r="M8" s="15"/>
+      <c r="N8" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="H9" s="14" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L9" s="14" t="n">
+        <v>8086</v>
+      </c>
+      <c r="M9" s="15"/>
+      <c r="N9" s="14" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -794,8 +984,8 @@
     <cfRule type="duplicateValues" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="3"/>
   </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/prizmer/static/excel/water_digital_template_for_load.xlsx
+++ b/prizmer/static/excel/water_digital_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t xml:space="preserve">ЭкоНом ГВС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декаст ХВС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Декаст ГВС</t>
   </si>
 </sst>
 </file>
@@ -279,7 +285,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -337,10 +343,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -578,10 +580,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA9"/>
+  <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -589,14 +591,14 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.28"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -673,7 +675,7 @@
       <c r="L2" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="M2" s="15"/>
+      <c r="M2" s="14"/>
       <c r="N2" s="14" t="s">
         <v>20</v>
       </c>
@@ -699,7 +701,7 @@
       <c r="H3" s="12" t="n">
         <v>366032</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J3" s="14" t="n">
@@ -711,7 +713,7 @@
       <c r="L3" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="M3" s="15"/>
+      <c r="M3" s="14"/>
       <c r="N3" s="14" t="s">
         <v>20</v>
       </c>
@@ -749,7 +751,7 @@
       <c r="L4" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="M4" s="15"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="14" t="s">
         <v>22</v>
       </c>
@@ -775,7 +777,7 @@
       <c r="H5" s="12" t="n">
         <v>366035</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>21</v>
       </c>
       <c r="J5" s="14" t="n">
@@ -787,7 +789,7 @@
       <c r="L5" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="M5" s="15"/>
+      <c r="M5" s="14"/>
       <c r="N5" s="14" t="s">
         <v>22</v>
       </c>
@@ -806,7 +808,7 @@
         <v>23</v>
       </c>
       <c r="E6" s="14"/>
-      <c r="F6" s="15"/>
+      <c r="F6" s="14"/>
       <c r="G6" s="14" t="n">
         <v>65533</v>
       </c>
@@ -825,22 +827,22 @@
       <c r="L6" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="M6" s="15"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="17" t="s">
+      <c r="R6" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16"/>
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
@@ -856,7 +858,7 @@
         <v>23</v>
       </c>
       <c r="E7" s="14"/>
-      <c r="F7" s="15"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="14" t="n">
         <v>65535</v>
       </c>
@@ -875,24 +877,24 @@
       <c r="L7" s="14" t="n">
         <v>8085</v>
       </c>
-      <c r="M7" s="15"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="17" t="s">
+      <c r="R7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="17"/>
-      <c r="X7" s="17"/>
-      <c r="Y7" s="17"/>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16"/>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -906,7 +908,7 @@
         <v>29</v>
       </c>
       <c r="E8" s="14"/>
-      <c r="F8" s="15"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="14" t="n">
         <v>12</v>
       </c>
@@ -925,12 +927,12 @@
       <c r="L8" s="14" t="n">
         <v>8086</v>
       </c>
-      <c r="M8" s="15"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -944,7 +946,7 @@
         <v>29</v>
       </c>
       <c r="E9" s="14"/>
-      <c r="F9" s="15"/>
+      <c r="F9" s="14"/>
       <c r="G9" s="14" t="n">
         <v>13</v>
       </c>
@@ -963,8 +965,84 @@
       <c r="L9" s="14" t="n">
         <v>8086</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="H10" s="14" t="n">
+        <v>14</v>
+      </c>
+      <c r="I10" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="14" t="n">
+        <v>8086</v>
+      </c>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="H11" s="14" t="n">
+        <v>15</v>
+      </c>
+      <c r="I11" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="L11" s="14" t="n">
+        <v>8086</v>
+      </c>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
         <v>20</v>
       </c>
     </row>

--- a/prizmer/static/excel/water_digital_template_for_load.xlsx
+++ b/prizmer/static/excel/water_digital_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">Декаст ГВС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пульсар IoT ВС</t>
   </si>
 </sst>
 </file>
@@ -580,13 +583,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA11"/>
+  <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K19" activeCellId="0" sqref="K19"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="10.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17"/>
@@ -1043,6 +1046,44 @@
       </c>
       <c r="M11" s="14"/>
       <c r="N11" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12" t="n">
+        <v>866033</v>
+      </c>
+      <c r="H12" s="12" t="n">
+        <v>866033</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J12" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="L12" s="14" t="n">
+        <v>8085</v>
+      </c>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
         <v>20</v>
       </c>
     </row>

--- a/prizmer/static/excel/water_digital_template_for_load.xlsx
+++ b/prizmer/static/excel/water_digital_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="38">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -128,6 +128,12 @@
   </si>
   <si>
     <t xml:space="preserve">Пульсар IoT ВС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ХВС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">←тип прибора ХВС или ГВС</t>
   </si>
 </sst>
 </file>
@@ -288,7 +294,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,6 +361,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -586,7 +596,7 @@
   <dimension ref="A1:AA12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="R15" activeCellId="0" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1086,6 +1096,14 @@
       <c r="N12" s="14" t="s">
         <v>20</v>
       </c>
+      <c r="O12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="S12" s="17"/>
+      <c r="T12" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/prizmer/static/excel/water_digital_template_for_load.xlsx
+++ b/prizmer/static/excel/water_digital_template_for_load.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="39">
   <si>
     <t xml:space="preserve">Населенный пункт</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t xml:space="preserve">Пульсар IoT ВС</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Корпус 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Квартира 0112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Водосчётчик Ридан СГВ-15 </t>
   </si>
 </sst>
 </file>
@@ -288,7 +297,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -355,6 +364,10 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -583,10 +596,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA12"/>
+  <dimension ref="A1:AA13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+      <selection pane="topLeft" activeCell="K25" activeCellId="0" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6875" defaultRowHeight="15" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,7 +609,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="16.84"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="26.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="5.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="14.28"/>
   </cols>
@@ -1085,6 +1098,44 @@
       <c r="M12" s="14"/>
       <c r="N12" s="14" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12" t="n">
+        <v>866034</v>
+      </c>
+      <c r="H13" s="12" t="n">
+        <v>866034</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="14" t="n">
+        <v>8086</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/prizmer/static/excel/water_digital_template_for_load.xlsx
+++ b/prizmer/static/excel/water_digital_template_for_load.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
   <si>
     <t>Населенный пункт</t>
   </si>
@@ -135,13 +135,16 @@
     <t>Квартира 0112</t>
   </si>
   <si>
-    <t xml:space="preserve">Водосчётчик Ридан СГВ-15 </t>
-  </si>
-  <si>
     <t>ВЗЛЕТ МР УРСВ-311</t>
   </si>
   <si>
     <t>Квартира 0114</t>
+  </si>
+  <si>
+    <t>Водосчётчик Ридан СГВ-15 ХВС</t>
+  </si>
+  <si>
+    <t>Водосчётчик Ридан СГВ-15 ГВС</t>
   </si>
 </sst>
 </file>
@@ -275,11 +278,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -321,31 +321,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 8" xfId="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -569,7 +559,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA14"/>
+  <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D15" sqref="D15"/>
@@ -577,576 +567,614 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.85546875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="2" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="26.42578125" style="2" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" style="2" customWidth="1"/>
-    <col min="11" max="11" width="14.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="30.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="51">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:27" ht="38.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="9" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="15.75">
-      <c r="A2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="13">
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="12">
         <v>366033</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="12">
         <v>366033</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J2" s="15">
-        <v>1</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="J2" s="14">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <v>8085</v>
       </c>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15" t="s">
+      <c r="M2" s="14"/>
+      <c r="N2" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="15.75">
-      <c r="A3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="11" t="s">
+      <c r="A3" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="13">
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12">
         <v>366032</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="12">
         <v>366032</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="15">
-        <v>1</v>
-      </c>
-      <c r="K3" s="15" t="s">
+      <c r="J3" s="14">
+        <v>1</v>
+      </c>
+      <c r="K3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>8085</v>
       </c>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="15.75">
-      <c r="A4" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="11" t="s">
+      <c r="A4" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="13">
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12">
         <v>366034</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="12">
         <v>366034</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="15">
-        <v>1</v>
-      </c>
-      <c r="K4" s="15" t="s">
+      <c r="J4" s="14">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>8085</v>
       </c>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15" t="s">
+      <c r="M4" s="14"/>
+      <c r="N4" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="15.75">
-      <c r="A5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="11" t="s">
+      <c r="A5" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13">
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="12">
         <v>366035</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="12">
         <v>366035</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="15">
-        <v>1</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="14">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>8085</v>
       </c>
-      <c r="M5" s="15"/>
-      <c r="N5" s="15" t="s">
+      <c r="M5" s="14"/>
+      <c r="N5" s="14" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="30.75" customHeight="1">
-      <c r="A6" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="11" t="s">
+      <c r="A6" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14">
         <v>65533</v>
       </c>
-      <c r="H6" s="15">
+      <c r="H6" s="14">
         <v>65533</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="15">
-        <v>1</v>
-      </c>
-      <c r="K6" s="15" t="s">
+      <c r="J6" s="14">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>8085</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15" t="s">
+      <c r="M6" s="14"/>
+      <c r="N6" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="18"/>
+      <c r="V6" s="18"/>
+      <c r="W6" s="18"/>
+      <c r="X6" s="18"/>
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="18"/>
+      <c r="AA6" s="18"/>
     </row>
     <row r="7" spans="1:27" ht="24.75" customHeight="1">
-      <c r="A7" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="11" t="s">
+      <c r="A7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15">
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14">
         <v>65535</v>
       </c>
-      <c r="H7" s="15">
+      <c r="H7" s="14">
         <v>65535</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="J7" s="15">
-        <v>1</v>
-      </c>
-      <c r="K7" s="15" t="s">
+      <c r="J7" s="14">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <v>8085</v>
       </c>
-      <c r="M7" s="15"/>
-      <c r="N7" s="15" t="s">
+      <c r="M7" s="14"/>
+      <c r="N7" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="18"/>
+      <c r="U7" s="18"/>
+      <c r="V7" s="18"/>
+      <c r="W7" s="18"/>
+      <c r="X7" s="18"/>
+      <c r="Y7" s="18"/>
+      <c r="Z7" s="18"/>
+      <c r="AA7" s="18"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="A8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14">
         <v>12</v>
       </c>
-      <c r="H8" s="15">
+      <c r="H8" s="14">
         <v>12</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="15">
-        <v>1</v>
-      </c>
-      <c r="K8" s="15" t="s">
+      <c r="J8" s="14">
+        <v>1</v>
+      </c>
+      <c r="K8" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>8086</v>
       </c>
-      <c r="M8" s="15"/>
-      <c r="N8" s="15" t="s">
+      <c r="M8" s="14"/>
+      <c r="N8" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="A9" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15">
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14">
         <v>13</v>
       </c>
-      <c r="H9" s="15">
+      <c r="H9" s="14">
         <v>13</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="J9" s="15">
-        <v>1</v>
-      </c>
-      <c r="K9" s="15" t="s">
+      <c r="J9" s="14">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>8086</v>
       </c>
-      <c r="M9" s="15"/>
-      <c r="N9" s="15" t="s">
+      <c r="M9" s="14"/>
+      <c r="N9" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11" t="s">
+      <c r="A10" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15">
-        <v>14</v>
-      </c>
-      <c r="H10" s="15">
-        <v>14</v>
-      </c>
-      <c r="I10" s="15" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14">
+        <v>14</v>
+      </c>
+      <c r="H10" s="14">
+        <v>14</v>
+      </c>
+      <c r="I10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="J10" s="15">
-        <v>1</v>
-      </c>
-      <c r="K10" s="15" t="s">
+      <c r="J10" s="14">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <v>8086</v>
       </c>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15" t="s">
+      <c r="M10" s="14"/>
+      <c r="N10" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="11" t="s">
+      <c r="A11" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15">
-        <v>15</v>
-      </c>
-      <c r="H11" s="15">
-        <v>15</v>
-      </c>
-      <c r="I11" s="15" t="s">
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14">
+        <v>15</v>
+      </c>
+      <c r="H11" s="14">
+        <v>15</v>
+      </c>
+      <c r="I11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="15">
-        <v>1</v>
-      </c>
-      <c r="K11" s="15" t="s">
+      <c r="J11" s="14">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <v>8086</v>
       </c>
-      <c r="M11" s="15"/>
-      <c r="N11" s="15" t="s">
+      <c r="M11" s="14"/>
+      <c r="N11" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:27" ht="15.75">
-      <c r="A12" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="11" t="s">
+      <c r="A12" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="13">
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12">
         <v>866033</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="12">
         <v>866033</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J12" s="15">
-        <v>1</v>
-      </c>
-      <c r="K12" s="15" t="s">
+      <c r="J12" s="14">
+        <v>1</v>
+      </c>
+      <c r="K12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <v>8085</v>
       </c>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15" t="s">
+      <c r="M12" s="14"/>
+      <c r="N12" s="14" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1">
-      <c r="A13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="11" t="s">
+      <c r="A13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="13">
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12">
         <v>866034</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="12">
         <v>866034</v>
       </c>
-      <c r="I13" s="17" t="s">
+      <c r="I13" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="14">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L13" s="14">
+        <v>8086</v>
+      </c>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="15" customHeight="1">
+      <c r="A14" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12">
+        <v>866035</v>
+      </c>
+      <c r="H14" s="12">
+        <v>866035</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="J14" s="14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L14" s="14">
+        <v>8086</v>
+      </c>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="15" customHeight="1">
+      <c r="A15" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12">
+        <v>12345</v>
+      </c>
+      <c r="H15" s="12">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-      <c r="K13" s="15" t="s">
+      <c r="J15" s="14">
+        <v>1</v>
+      </c>
+      <c r="K15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L15" s="14">
         <v>8086</v>
       </c>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1">
-      <c r="A14" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="13">
-        <v>12345</v>
-      </c>
-      <c r="H14" s="13">
-        <v>1</v>
-      </c>
-      <c r="I14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="J14" s="15">
-        <v>1</v>
-      </c>
-      <c r="K14" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="L14" s="15">
-        <v>8086</v>
-      </c>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15" t="s">
+      <c r="M15" s="14"/>
+      <c r="N15" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1156,14 +1184,14 @@
     <mergeCell ref="R7:AA7"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G3 G6:G1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/prizmer/static/excel/water_digital_template_for_load.xlsx
+++ b/prizmer/static/excel/water_digital_template_for_load.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="43">
   <si>
     <t>Населенный пункт</t>
   </si>
@@ -135,9 +135,6 @@
     <t>Квартира 0112</t>
   </si>
   <si>
-    <t>ВЗЛЕТ МР УРСВ-311</t>
-  </si>
-  <si>
     <t>Квартира 0114</t>
   </si>
   <si>
@@ -145,6 +142,12 @@
   </si>
   <si>
     <t>Водосчётчик Ридан СГВ-15 ГВС</t>
+  </si>
+  <si>
+    <t>ВЗЛЕТ МР УРСВ-311 ГВС</t>
+  </si>
+  <si>
+    <t>ВЗЛЕТ МР УРСВ-311 ХВС</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,17 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 8" xfId="1"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -559,10 +572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AA15"/>
+  <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
@@ -1086,7 +1099,7 @@
         <v>866034</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J13" s="14">
         <v>1</v>
@@ -1124,7 +1137,7 @@
         <v>866035</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J14" s="14">
         <v>1</v>
@@ -1151,7 +1164,7 @@
         <v>36</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="11"/>
@@ -1162,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="J15" s="14">
         <v>1</v>
@@ -1175,6 +1188,44 @@
       </c>
       <c r="M15" s="14"/>
       <c r="N15" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="15" customHeight="1">
+      <c r="A16" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12">
+        <v>12346</v>
+      </c>
+      <c r="H16" s="12">
+        <v>2</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="J16" s="14">
+        <v>1</v>
+      </c>
+      <c r="K16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" s="14">
+        <v>8086</v>
+      </c>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14" t="s">
         <v>20</v>
       </c>
     </row>
@@ -1184,14 +1235,14 @@
     <mergeCell ref="R7:AA7"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G3 G6:G1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/prizmer/static/excel/water_digital_template_for_load.xlsx
+++ b/prizmer/static/excel/water_digital_template_for_load.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Web-prizmer\wui3\prizmer\static\cfg\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03399543-3DA6-4217-A9CB-2D7D463DF952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Water_k1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725" iterateDelta="0"/>
+  <calcPr calcId="125725" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -153,11 +159,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -336,9 +342,49 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 8" xfId="1"/>
+    <cellStyle name="Обычный 8" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -459,6 +505,14 @@
       <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -571,14 +625,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="17" style="1" customWidth="1"/>
@@ -591,7 +645,7 @@
     <col min="11" max="11" width="14.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="38.25">
+    <row r="1" spans="1:27" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -635,7 +689,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:27" ht="15.75">
+    <row r="2" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -673,7 +727,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:27" ht="15.75">
+    <row r="3" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>14</v>
       </c>
@@ -711,7 +765,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="15.75">
+    <row r="4" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>14</v>
       </c>
@@ -749,7 +803,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:27" ht="15.75">
+    <row r="5" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>14</v>
       </c>
@@ -787,7 +841,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="30.75" customHeight="1">
+    <row r="6" spans="1:27" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>14</v>
       </c>
@@ -837,7 +891,7 @@
       <c r="Z6" s="18"/>
       <c r="AA6" s="18"/>
     </row>
-    <row r="7" spans="1:27" ht="24.75" customHeight="1">
+    <row r="7" spans="1:27" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
@@ -887,7 +941,7 @@
       <c r="Z7" s="18"/>
       <c r="AA7" s="18"/>
     </row>
-    <row r="8" spans="1:27">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
@@ -925,7 +979,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:27">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>14</v>
       </c>
@@ -963,7 +1017,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>14</v>
       </c>
@@ -1001,7 +1055,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>14</v>
       </c>
@@ -1039,7 +1093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="15.75">
+    <row r="12" spans="1:27" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>14</v>
       </c>
@@ -1077,7 +1131,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:27" ht="15" customHeight="1">
+    <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>14</v>
       </c>
@@ -1115,7 +1169,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:27" ht="15" customHeight="1">
+    <row r="14" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>14</v>
       </c>
@@ -1153,7 +1207,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="15" customHeight="1">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
@@ -1191,7 +1245,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:27" ht="15" customHeight="1">
+    <row r="16" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>14</v>
       </c>
@@ -1235,14 +1289,17 @@
     <mergeCell ref="R7:AA7"/>
   </mergeCells>
   <conditionalFormatting sqref="G1:G3 G6:G1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4:G5">
+    <cfRule type="duplicateValues" dxfId="7" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:G5">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
